--- a/500all/speech_level/speeches_CHRG-114hhrg97767.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97767.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. The Science, Space, and Technology Committee will come to order.    Without objection, the Chair is authorized to declare recesses of the Committee at any time.    Welcome, everyone, to today's hearing entitled ``Examining EPA's Predetermined Efforts to Block the Pebble Mine.''    I'll recognize myself for an opening statement and then the Ranking Member, although on second thought, given time considerations and the fact that we have another vote in 45 minutes or so, and wanting to hear from our witnesses today, I'm going to ask unanimous consent to put my opening statement in the record if the Ranking Member is going to do the same thing, and she's agreed to do the same thing.</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>400204</t>
   </si>
   <si>
-    <t>Eddie Bernice Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you, Mr. Chairman.    Pebble has been blasted by Members of Congress from both sides of the aisle for years because of over a decade they filed for a mine permit, and your report claims that EPA did not do a good job receiving input from Pebble Partnership. However, there are ample documents illustrating just how transparent EPA's process has been including a list of numerous meetings with the Pebble Partnership over the course of many years. And we will hear from Mr. Halford, I think, that Pebble rejected EPA's request to provide input participation in the watershed assessment process in 2011. And in your own report, you state that the Pebble Partnership refused repeated requests for the wholesale disclosure of the raw data and more user-friendly format. So I'm just wondering, Mr. Secretary, did you attempt to acquire the raw data from Pebble to verify their claims or did they provide it or if so, will you please make us--make that information available to the Committee?    Hon. Cohen. I believe that the raw data you're referring to is a baseline report that was developed by Pebble, and they did agree to make that available in a PDF format. The criticism that was leveled on that issue was that it wasn't as user-friendly, and what Pebble, as I understand it, was concerned about was that if it was opened up to all parties, they would--there could be information that was extracted from that that would mischaracterize what the report was saying. But in any event, what EPA has relied upon is the Wardrop Report. The Wardrop Report was really basically a filing saying this is--we're going to examine this area to see what's under the ground. The Wardrop report never proposed to be a mining proposal, never a defined project. In fact, the author of the Wardrop report was never contacted by EPA to say what was the reason that you filed this report and why are you not seeing this in this fashion.    So I think what Pebble has tried to do is say we'll give you our baseline data, we've given it to you, offered it to you, but we're not ready, and you may ask Mr. Collier this, is it the power of the state or the EPA to compel an owner of rights to file a defined plan? Does the EPA force you to file something when you're not ready to file it? I don't know the reasons why Mr. Collier doesn't want to file it at this point. It may be he's looking for more technical data. It may be their financial backers that he needs to acquire. But the notion that the EPA can make you file something that you're not ready to file, and over the objection of the State of Alaska, it seems to me that's quite a stretch for EPA.</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, and let me just note, this hearing represents a major problem that we're facing in our society right now. There is a conflict between the legislative and executive branches over who's going to make the rules and who's going to actually determine what policies will be followed rather than--and I think, unfortunately, what we're describing just today is yet another example of an arrogant usurpation of authority by the Administration, and the EPA is perhaps one of the ones that--instruments that have been used more than others to centralize this power and create a legal authority when perhaps they do not have it.    In this case, let me just ask you, Secretary Cohen--by the way, another thought. There is not--unfortunately quite often what we're talking about is actions that are taken without regard to cost to the public, and a lot of times people think that we can just do these things and we're going to improve things and there's going to be no cost at all because there's nothing in the federal budget but it ends up costing the American consumer enormous amounts of money. In this case, did you find that the Army Corps of Engineers and the State of Alaska were brought into the decision-making process here and the investigation as they should have been?    Hon. Cohen. Well, the answer to that is yes and no. The State of Alaska was brought into it unwillingly. If you look at the report, you'll find from day one, Alaska objected to this process being instituted under 404(c). So the Governor actually wrote to the EPA Administrator saying it's a case where I'm damned if I do and damned if I don't. If I refuse to participate in this, EPA will say you had your chance. If I don't participate--if I do participate in this, I'll be seen as complying with it and having my chance, but I, the State of Alaska, are fundamentally opposed to proceeding in this fashion. So the State of Alaska did in fact participate unwillingly and with great objection throughout from the day it all started.    With respect to the Corps itself, the Army Corps of Engineers was not brought in to the process. Initially when the Bristol Bay Watershed Assessment was done, they said they couldn't participate because they would be called upon to become active during the NEPA process and therefore wanted to avoid a conflict of interest, and then when the assessments were completed, the watershed assessment was completed, they were asked, do you want to comment, and they said we can't comment because we have no defined plan. So the Army Corps of Engineers never participated in this process, which raises the question that the Army Corps of Engineers is the action agent. They are the project manager for any type of mine or project that would be designed. They are not part of this particular process so they were excluded under it.</t>
   </si>
   <si>
@@ -109,9 +100,6 @@
     <t>412501</t>
   </si>
   <si>
-    <t>Suzanne Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman, and thank you to our witnesses.    I represent a district that includes part of the beautiful Oregon coast, and a lot of my constituents are extremely concerned about the profound environmental risks associated with the operation of an open-pit copper mine in Bristol Bay, and I know we'll hear from Mr. Halford on our second panel, the people of Alaska are already dealing with some of the environmental fallout from the exploratory operations conducted by the Pebble Partnership in the region. They're very concerned about that.    Secretary Cohen, you talked about an unprecedented process, but it's my understanding that the Mineral Exploration and Development Act of 1993 contained very similar provisions--you supported it--that would have given the Department of Interior the authority to do essentially what the EPA has done here.    And I wanted to mention how concerned I am that we're having this conversation without the EPA here. We are questioning--raising a lot of questions about their process or their procedure. We absolutely need to hear from them. They should be in the room answering questions----</t>
   </si>
   <si>
@@ -130,18 +118,12 @@
     <t>412395</t>
   </si>
   <si>
-    <t>Mo Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brooks. Secretary Cohen or Mr. Scheeler, whoever prefers to answer, in your investigation, have you discovered any other instance where EPA limited or stopped a project using Section 404(c) before any permit applications have been submitted?    Hon. Cohen. There was one incident that I'm aware of, and Mr. Scheeler can amplify it. Out of the 43-year period of time in which this Act has been in law, there've been 13 occasions when 404(c) has been called upon only after the filing of a permit. The one exception to that was a case in Florida in which there were three contiguous parcels, and in two of those three parcels there had been permits filed and giving the opportunity for EPA and the Army Corps of Engineers and others to participate. Based upon their examination of those three contiguous properties, they decided that there was no need to file a permit in that one exception in Florida based upon the same characteristics, same area, different ownership. They said no need there, we've looked at all of the information from the Army Corps of Engineers and all who had participated and were satisfied this is the right course of action. There was one minor exception, and that was only after two of the three participants in the mining proposals had filed permit applications.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Scheeler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scheeler. And Congressman, EPA themselves have written on this. There was a discussion matrix presented to the Administrator in September of 2010, and they were discussing the potential use of 404(c) before any permit application had been filed, and the EPA written statement is that that had never been done before in the history of the Clean Water Act.</t>
   </si>
   <si>
@@ -157,18 +139,12 @@
     <t>412655</t>
   </si>
   <si>
-    <t>Brian Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Babin. [Presiding] Yes, sir. Thank you. And I now recognized the gentleman from Virginia, Mr. Beyer.</t>
   </si>
   <si>
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman.    Secretary Cohen, Mr. Scheeler, Pebble's been blasted by Members of Congress from both sides of the aisle for years because for over a decade they haven't filed the mine permit. Mr. Secretary, you talked about there's nothing that the state can do, the EPA can do to compel them to do it. At the same time, they went to the SEC and did detailed information for investors on this, and I understand that much of what the EPA based their 404(c) determination on was Pebble's information to the SEC.    How much of EPA's decision to move forward was based on frustration that emerged from the fishermen who depend on this, from the Native Americans, from the people of Alaska that this was just a sword of Damocles hanging over their head, that Pebble was not coming forward with a mine permit and there was a lot of pressure on the EPA to try to do something?    Hon. Cohen. Well, that's another policy issue, Congressman, that I think needs to be addressed. If the State of Alaska, which owns the property, and have given mining rights to Pebble is there a requirement that they file a defined plan, a specified defined plan, in a certain time frame. I mean, it would seem to me that for the government to say you must file something is really kind of preempting certainly the state's interest in this and certainly Pebble's interest but any time a landowner including the State of Alaska is forced to take action, which it says it's not ready to take or the individual involved who owns the property right or the mineral right, you must do this, it seems to me that this is a policy issue which I think Congress needs to look at closely.    If you think 404(c) should be applied and can be applied on multiple occasions, not just this one but multiple occasions without a permit having been filed, then that's a very big policy decision, and I think it's worth--I think you need to explore it. I think this is very important.    And I would tell the Committee and the people who are here, I've been a big supporter of EPA. Historically, I've supported much if not all of their work in the past certainly when I was a Member of Congress, but I also felt when I was in the Senate and the House that I wanted every agency to act as openly and fairly as possible and you come to the situation where you say I'm going to force you to file a plan before you're ready. I think that trespasses upon the state's right and also the individual's rights. That's a personal opinion. It's a policy decision which I think you need to raise and hopefully resolve.</t>
   </si>
   <si>
@@ -196,9 +172,6 @@
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman, and thank you both for being here.    As a ten year resident of Alaska who did some recreational mining, this is--I can equate to what you're going through, but question for either one of you, Mr. Secretary or Mr. Scheeler. In the course of your investigation, did you determine whether EPA employees were using private email accounts to discuss official EPA business with outside groups opposed to your mine?    Hon. Cohen. The answer is yes. There were--and we documented that in the report. There were a number of occasions when private emails were set up to conduct business, which violates actually EPA's own rules, in the aspect that those private conversations or communications need to be filed with EPA. There----</t>
   </si>
   <si>
@@ -259,9 +232,6 @@
     <t>412520</t>
   </si>
   <si>
-    <t>Mark Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman. Thank you both for being here today.    Mr. Scheeler, the report stresses that you conducted an independent review although you were paid by the Pebble Partnership to write the report, but I've learned of a recent transaction that raises some questions about the association between your law firm, DLA Piper, and Northern Dynasty, the parent company of Pebble Limited Partnership. I'd like to put up a slide, if I may.    [Slide.]               This slide here, slide one, shows that on October 28th, nearly 9 million shares of Northern Dynasty stock worth more than $2.7 million were transferred to a British Columbia company listed by its business number 1047208 BC Limited. Slide two, please.    [Slide.]                    Actually, is it slide two or slide three? Well, this slide clearly identifies Stewart Morrow listed as the contact for the business 1047208 as a DLA Piper partner. Last slide, please.    [Slide.]               This slide shows that the address this numbered company provided on a British Columbia Securities Commission form is the same exact address and suite number as DLA Piper's Vancouver office.    Now, Mr. Scheeler, I don't know the background or specifics about this transaction but I do believe the mere fact that a DLA Piper partner was involved in a significant business transaction involving the parent company of the Pebble Partnership less than 6 weeks before you and Secretary Cohen released your independent review of the EPA's actions regarding Northern Dynasty's proposed Pebble Mine in Bristol Bay does raise serious conflicts of interest and questions about the independence of your report.    Were you aware of this transaction before the release of the Cohen Report?</t>
   </si>
   <si>
@@ -289,9 +259,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman, and thank you to the witnesses.    Secretary Cohen, in your investigation, did you determine that EPA employees had considered using 404(c) of the Clean Water Act long before EPA had obtained any science on the impacts of the mine?    Hon. Cohen. I indicated in the report that there were allegations to that effect and that there was some indication, some examples that were cited in the report of conversations had as early as 2005 on the part of Mr. North talking to others that this was something that would be ripe for a 404(c) application. In addition to that, there were a number of matrixes set out, a pro and con matrix, for the Administrator to look at to say well, if we go the NEPA way, here's what happens. If we use 404(c), we have these advantages. And so there were indications that long before they made a determination that this has been something that they were considering. Also, there's a budgetary issue involved. It appears--and again, this is something that we couldn't really confirm but it appears that money was being requested as early as 2009 in order to carry out the 404(c) investigation. There were--it's in the 2010 budget, it appears to be in the 2010 budget of EPA. To get it in the budget, you would have to have started talking about it as early as 2009. So there's--there are a lot of examples. I didn't come to any conclusion that there was--that they in fact had made that decision but there's enough there for you to want to follow up on to say how come these processes were used that early.</t>
   </si>
   <si>
@@ -313,9 +280,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair.    Mr. Cohen, I have a series of questions about your report, and please answer a simple yes or no. Did you make any public announcement of your intention to initiate a review of EPA's actions?    Hon. Cohen. I made a public announcement. I had a press conference.</t>
   </si>
   <si>
@@ -373,9 +337,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman, and thank you, Secretary Cohen, for your testimony today and for your service to our country, and Mr. Scheeler, thank you for being here.    As we broach this subject of integrity and fair processes, the EPA claims that they took their action against the Pebble Mine because the agency received a petition letter asking them to stop the mine by using a preemptive 404(c) action. Mr. Cohen, can you explain what you found regarding this in the course of your investigation?    Hon. Cohen. Well, I think that Mr. Scheeler has already commented on this, that there is evidence that a decision--a recommendation for a decision to go to 404(c) preceded the action taken by EPA so that there is a fairly lengthy period of time in which it's clear that it was not the petition that activated this but rather that this was something that was thought about as long ago as 2005, long before the agency took action by instituting a so-called Bristol Bay Watershed Assessment in 2011.</t>
   </si>
   <si>
@@ -400,18 +361,12 @@
     <t xml:space="preserve">    Chairman Smith. The Science, Space, and Technology Committee will resume our hearing, and if Mr. Collier and Mr. Halford would come forward and be seated? And I'll introduce our two witnesses.    Our first witness on the second panel is Mr. Tom Collier, Chief Executive Officer for Pebble Limited Partnership. Prior to this position, Mr. Collier enjoyed a 40-year legal career with Steptoe and Johnson. There, he helped guide companies through the federal environmental permitting process. He has worked on several Alaskan resource projects. In addition to his legal career, Mr. Collier was the Chief of Staff for the U.S. Department of the Interior. Mr. Collier received his bachelor's degree in international relations from the University of Virginia and his law degree from the University of Mississippi.    Our other witness is Senator Rick Halford, former Alaska State Senator and Representative of Trout Unlimited. Senator Halford served for nearly 25 years in the Alaska State Senate with multiple terms as both Senate President and Senate Majority Leader. In addition, he served as an RNC Committeeman for Alaska and earned a Defender of Freedom Award from the NRA. Prior to joining the Alaska State Senate, Senator Halford was a float plane pilot, and he earned his bachelor's degree from Alaska Methodist University.    We welcome you both, and appreciate your being here and appreciate your patience as well since we're running a little bit late, and Mr. Collier, if you'll begin?</t>
   </si>
   <si>
-    <t>Collier</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collier. Thank you, Mr. Chairman and Members of the Committee, for the opportunity to testify today.    As you all know, there's a well-worn pathway to build a natural resources project in America. You file your permit application. You go to the Corps of Engineers. The Corps of Engineers selects an independent contractor to do an extensive environmental impact statement, and then makes a decision on your permit. In fact, the environmental organizations refer to the environmental impact statement as the Magna Carta of environmental protection, and in fact, I agree with them on that characterization.    In our situation, however, EPA decided to abandon this well-worn pathway, and for the first time ever in the history of the statute, it's issued an intent to veto our project before we've even filed a permit application.    The question is why have they done this, and a starting point in that analysis is recognizing that there's no environmental harm that will happen whatsoever if we're simply allowed to go through the permit process. We don't get to build a mine. We don't get to turn a shovel of dirt. In fact, we go through the permit process. But you don't need to speculate on why because we found documents, internal documents within EPA, that clearly explain what their motive is, what their intent in establishing this precedent is.    The first one is that they want the opportunity when there's a controversial project before them to take jurisdiction away from the Corps of Engineers, away from the state, and to leave it unilaterally with EPA. Second, and this is language straight from EPA documents, they want to establish a precedent for proactive watershed planning for sustainability. They want to be able to go out there and look at a watershed and decide whether or not it should be a park or it should be something subject to development. They want something akin to local zoning authority to reside with EPA. They want to be able to zone the watersheds of America. I don't think the Clean Water Act gives them that authority.    The problem is, when a federal agency wanders off the well-worn pathway, there's opportunity for mischief, and here that mischief has been extensive. As detailed more in my written statement, and as Secretary Cohen just eloquently testified to, EPA, in my view, predetermined the outcome with respect to Pebble. That's what the documents show. And they manipulated the process in order to get to that outcome.    Just a couple of examples, and the record is full of many of these examples. EPA says that they initiated this process because petitions were drafted by Native tribes and submitted to them. The documents show that as early as January, the year before these petitions were submitted in June, an EPA employee and an environmental activist colluded to draft those petitions and then circulated them to the tribes that signed them. In addition, they worked together, an EPA employee and an environmental activist, to draft the decision memo that would be used by the Regional Administrator. This was being done before the petitions had even been filed and the decision memo, the EPA decision memo, was being drafted not just in EPA but was being drafted with the participation of environmental activists. I worked in a federal agency that dealt with environmental issues, and if that had happened on my watch, that employee would have been fired that day. That's how egregious this conduct is.    The BBWA that resulted from this has been characterized by EPA as good science. It's not good science. How in the world do you take a scientific look at the environmental impacts of a project when you don't know what the project is? There's no project on the table.    Second, what they did to get around this is they assigned a biologist in Alaska to design the mine that they assumed Pebble would design, and that biologist designed the mine--Phil North--designed it so that it would have the most egregious environmental impacts so that they could use those impacts as their justification for deciding that the mine should be vetoed. Phil North, by the way, fled the country in order to avoid a subpoena from another committee of Congress.    Look, the impact of this preliminary veto, this preemptive veto on Pebble has been devastating but it's not just an impact on Pebble. This is going to have an impact across the country. We have invested $750 million to get ready to go into permitting, and EPA is trying to tell us unilaterally that we cannot even initiate the permitting process. If you send that message to people out there regarding natural resource projects across America, nobody's going to stand in line to file permits. Nobody's going to invest in the permitting process.    Thank you for your time today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Collier.    Senator Halford.</t>
   </si>
   <si>
-    <t>Halford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Halford. Thank you, Mr. Chairman, and thank----</t>
   </si>
   <si>
@@ -524,9 +479,6 @@
   </si>
   <si>
     <t>412574</t>
-  </si>
-  <si>
-    <t>Randy K. Weber, Sr.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Weber. Thank you, Mr. Chairman.    Mr. Collier, this question is for you. What is your understanding of the decision EPA undertook to initiate the Bristol Bay Watershed Assessment? Did the EPA initiate this study to gather more information, or would--did it seem more like a preemptive 404(c) action?</t>
@@ -1126,11 +1078,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1152,11 +1102,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1178,11 +1126,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1204,11 +1150,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1228,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1254,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1280,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1308,11 +1246,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1332,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1358,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1386,11 +1318,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1410,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1438,11 +1366,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1462,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1490,11 +1414,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1514,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1540,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>31</v>
-      </c>
-      <c r="H18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1568,11 +1486,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1592,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1618,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1644,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1670,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1696,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1722,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1748,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1774,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1800,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1826,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
         <v>46</v>
-      </c>
-      <c r="G29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1852,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
         <v>47</v>
-      </c>
-      <c r="H30" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1878,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1904,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1930,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1956,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1982,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2008,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2034,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2060,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2086,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2112,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2138,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2164,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>60</v>
-      </c>
-      <c r="H42" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2190,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2216,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2242,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2268,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2294,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2320,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2346,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2372,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2398,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2424,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2450,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>80</v>
-      </c>
-      <c r="G53" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2476,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2502,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
-      </c>
-      <c r="G55" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2528,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2554,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2580,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2606,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
-      </c>
-      <c r="G59" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2632,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
-      </c>
-      <c r="G60" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2658,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>90</v>
-      </c>
-      <c r="G61" t="s">
-        <v>91</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2684,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
-      </c>
-      <c r="G62" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2710,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>90</v>
-      </c>
-      <c r="G63" t="s">
-        <v>91</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2736,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>90</v>
-      </c>
-      <c r="G64" t="s">
-        <v>91</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2762,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>90</v>
-      </c>
-      <c r="G65" t="s">
-        <v>91</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2788,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
-      </c>
-      <c r="G66" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2814,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>98</v>
-      </c>
-      <c r="G67" t="s">
-        <v>99</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2840,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>98</v>
-      </c>
-      <c r="G68" t="s">
-        <v>99</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2866,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>98</v>
-      </c>
-      <c r="G69" t="s">
-        <v>99</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2892,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>98</v>
-      </c>
-      <c r="G70" t="s">
-        <v>99</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2918,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>98</v>
-      </c>
-      <c r="G71" t="s">
-        <v>99</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2944,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>98</v>
-      </c>
-      <c r="G72" t="s">
-        <v>99</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2970,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>98</v>
-      </c>
-      <c r="G73" t="s">
-        <v>99</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2996,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>98</v>
-      </c>
-      <c r="G74" t="s">
-        <v>99</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3022,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>98</v>
-      </c>
-      <c r="G75" t="s">
-        <v>99</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3048,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" t="s">
-        <v>99</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3074,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
         <v>98</v>
-      </c>
-      <c r="G77" t="s">
-        <v>99</v>
-      </c>
-      <c r="H77" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3100,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
-      </c>
-      <c r="G78" t="s">
+        <v>87</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
         <v>99</v>
-      </c>
-      <c r="H78" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3126,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>98</v>
-      </c>
-      <c r="G79" t="s">
-        <v>99</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3152,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G80" t="s">
-        <v>99</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3180,11 +2974,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3206,11 +2998,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3230,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
-      </c>
-      <c r="G83" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3258,11 +3046,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3282,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>118</v>
-      </c>
-      <c r="G85" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3308,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
-      </c>
-      <c r="G86" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3334,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>118</v>
-      </c>
-      <c r="G87" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3360,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
-      </c>
-      <c r="G88" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3386,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>118</v>
-      </c>
-      <c r="G89" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3412,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G90" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3440,11 +3214,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3466,11 +3238,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3490,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
-      </c>
-      <c r="G93" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3518,11 +3286,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3542,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
-      </c>
-      <c r="G95" t="s">
-        <v>131</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3570,11 +3334,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3594,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
-      </c>
-      <c r="G97" t="s">
-        <v>131</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3622,11 +3382,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3646,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
-      </c>
-      <c r="G99" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3672,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
-      </c>
-      <c r="G100" t="s">
-        <v>131</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3698,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>46</v>
-      </c>
-      <c r="G101" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3724,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
-      </c>
-      <c r="G102" t="s">
-        <v>131</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3750,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>46</v>
-      </c>
-      <c r="G103" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3776,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
-      </c>
-      <c r="G104" t="s">
-        <v>131</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3802,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
-      </c>
-      <c r="G105" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3828,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
-      </c>
-      <c r="G106" t="s">
-        <v>131</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3854,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>46</v>
-      </c>
-      <c r="G107" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3880,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
-      </c>
-      <c r="G108" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3906,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
-      </c>
-      <c r="G109" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3934,11 +3670,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3958,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
-      </c>
-      <c r="G111" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3984,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
-      </c>
-      <c r="G112" t="s">
-        <v>131</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4012,11 +3742,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4036,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
-      </c>
-      <c r="G114" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4064,11 +3790,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4088,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
-      </c>
-      <c r="G116" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4116,11 +3838,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4140,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
-      </c>
-      <c r="G118" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4168,11 +3886,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4192,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
-      </c>
-      <c r="G120" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4220,11 +3934,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4244,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
-      </c>
-      <c r="G122" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4272,11 +3982,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4296,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
-      </c>
-      <c r="G124" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4322,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
-      </c>
-      <c r="G125" t="s">
-        <v>131</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4348,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
-      </c>
-      <c r="G126" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4374,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
-      </c>
-      <c r="G127" t="s">
-        <v>131</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4400,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
-      </c>
-      <c r="G128" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4426,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
-      </c>
-      <c r="G129" t="s">
-        <v>131</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4452,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
-      </c>
-      <c r="G130" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4480,11 +4174,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4504,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
-      </c>
-      <c r="G132" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4532,11 +4222,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4556,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>169</v>
-      </c>
-      <c r="G134" t="s">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4582,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>40</v>
-      </c>
-      <c r="G135" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4608,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>169</v>
-      </c>
-      <c r="G136" t="s">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4634,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
-      </c>
-      <c r="G137" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4660,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>169</v>
-      </c>
-      <c r="G138" t="s">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4686,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
-      </c>
-      <c r="G139" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4712,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>169</v>
-      </c>
-      <c r="G140" t="s">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4738,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>169</v>
-      </c>
-      <c r="G141" t="s">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4764,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
-      </c>
-      <c r="G142" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4790,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>169</v>
-      </c>
-      <c r="G143" t="s">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4816,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
-      </c>
-      <c r="G144" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4842,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>169</v>
-      </c>
-      <c r="G145" t="s">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4868,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
-      </c>
-      <c r="G146" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4894,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>169</v>
-      </c>
-      <c r="G147" t="s">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4920,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
-      </c>
-      <c r="G148" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4946,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>169</v>
-      </c>
-      <c r="G149" t="s">
+        <v>154</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
         <v>170</v>
-      </c>
-      <c r="H149" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4972,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
-      </c>
-      <c r="G150" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4998,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>169</v>
-      </c>
-      <c r="G151" t="s">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5024,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
-      </c>
-      <c r="G152" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5050,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>169</v>
-      </c>
-      <c r="G153" t="s">
-        <v>170</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5078,11 +4726,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5102,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>118</v>
-      </c>
-      <c r="G155" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5128,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
-      </c>
-      <c r="G156" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5154,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>118</v>
-      </c>
-      <c r="G157" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5180,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
-      </c>
-      <c r="G158" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5206,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>118</v>
-      </c>
-      <c r="G159" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5232,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
-      </c>
-      <c r="G160" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5258,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>118</v>
-      </c>
-      <c r="G161" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5284,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
-      </c>
-      <c r="G162" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5310,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>118</v>
-      </c>
-      <c r="G163" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5336,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
-      </c>
-      <c r="G164" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5362,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>118</v>
-      </c>
-      <c r="G165" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5390,11 +5014,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5414,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>90</v>
-      </c>
-      <c r="G167" t="s">
-        <v>91</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5440,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
-      </c>
-      <c r="G168" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5466,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>90</v>
-      </c>
-      <c r="G169" t="s">
-        <v>91</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5492,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
-      </c>
-      <c r="G170" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5518,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>90</v>
-      </c>
-      <c r="G171" t="s">
-        <v>91</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5544,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
-      </c>
-      <c r="G172" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5570,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>90</v>
-      </c>
-      <c r="G173" t="s">
-        <v>91</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5596,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
-      </c>
-      <c r="G174" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5622,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>90</v>
-      </c>
-      <c r="G175" t="s">
-        <v>91</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5648,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
-      </c>
-      <c r="G176" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5674,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>90</v>
-      </c>
-      <c r="G177" t="s">
-        <v>91</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5702,11 +5302,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5726,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>59</v>
-      </c>
-      <c r="G179" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5754,11 +5350,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5778,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>59</v>
-      </c>
-      <c r="G181" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5804,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>40</v>
-      </c>
-      <c r="G182" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5830,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>59</v>
-      </c>
-      <c r="G183" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5856,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
-      </c>
-      <c r="G184" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5882,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>59</v>
-      </c>
-      <c r="G185" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5908,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
-      </c>
-      <c r="G186" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5934,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>59</v>
-      </c>
-      <c r="G187" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5960,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
-      </c>
-      <c r="G188" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5986,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>59</v>
-      </c>
-      <c r="G189" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6014,11 +5590,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6038,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
-      </c>
-      <c r="G191" t="s">
-        <v>131</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6066,11 +5638,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6090,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
-      </c>
-      <c r="G193" t="s">
-        <v>131</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6118,11 +5686,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6142,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
-      </c>
-      <c r="G195" t="s">
-        <v>131</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6170,11 +5734,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6194,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
-      </c>
-      <c r="G197" t="s">
-        <v>131</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6222,11 +5782,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6246,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
-      </c>
-      <c r="G199" t="s">
-        <v>128</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6274,11 +5830,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97767.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97767.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. The Science, Space, and Technology Committee will come to order.    Without objection, the Chair is authorized to declare recesses of the Committee at any time.    Welcome, everyone, to today's hearing entitled ``Examining EPA's Predetermined Efforts to Block the Pebble Mine.''    I'll recognize myself for an opening statement and then the Ranking Member, although on second thought, given time considerations and the fact that we have another vote in 45 minutes or so, and wanting to hear from our witnesses today, I'm going to ask unanimous consent to put my opening statement in the record if the Ranking Member is going to do the same thing, and she's agreed to do the same thing.</t>
   </si>
   <si>
@@ -67,6 +76,12 @@
     <t>400204</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you, Mr. Chairman.    Pebble has been blasted by Members of Congress from both sides of the aisle for years because of over a decade they filed for a mine permit, and your report claims that EPA did not do a good job receiving input from Pebble Partnership. However, there are ample documents illustrating just how transparent EPA's process has been including a list of numerous meetings with the Pebble Partnership over the course of many years. And we will hear from Mr. Halford, I think, that Pebble rejected EPA's request to provide input participation in the watershed assessment process in 2011. And in your own report, you state that the Pebble Partnership refused repeated requests for the wholesale disclosure of the raw data and more user-friendly format. So I'm just wondering, Mr. Secretary, did you attempt to acquire the raw data from Pebble to verify their claims or did they provide it or if so, will you please make us--make that information available to the Committee?    Hon. Cohen. I believe that the raw data you're referring to is a baseline report that was developed by Pebble, and they did agree to make that available in a PDF format. The criticism that was leveled on that issue was that it wasn't as user-friendly, and what Pebble, as I understand it, was concerned about was that if it was opened up to all parties, they would--there could be information that was extracted from that that would mischaracterize what the report was saying. But in any event, what EPA has relied upon is the Wardrop Report. The Wardrop Report was really basically a filing saying this is--we're going to examine this area to see what's under the ground. The Wardrop report never proposed to be a mining proposal, never a defined project. In fact, the author of the Wardrop report was never contacted by EPA to say what was the reason that you filed this report and why are you not seeing this in this fashion.    So I think what Pebble has tried to do is say we'll give you our baseline data, we've given it to you, offered it to you, but we're not ready, and you may ask Mr. Collier this, is it the power of the state or the EPA to compel an owner of rights to file a defined plan? Does the EPA force you to file something when you're not ready to file it? I don't know the reasons why Mr. Collier doesn't want to file it at this point. It may be he's looking for more technical data. It may be their financial backers that he needs to acquire. But the notion that the EPA can make you file something that you're not ready to file, and over the objection of the State of Alaska, it seems to me that's quite a stretch for EPA.</t>
   </si>
   <si>
@@ -82,6 +97,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, and let me just note, this hearing represents a major problem that we're facing in our society right now. There is a conflict between the legislative and executive branches over who's going to make the rules and who's going to actually determine what policies will be followed rather than--and I think, unfortunately, what we're describing just today is yet another example of an arrogant usurpation of authority by the Administration, and the EPA is perhaps one of the ones that--instruments that have been used more than others to centralize this power and create a legal authority when perhaps they do not have it.    In this case, let me just ask you, Secretary Cohen--by the way, another thought. There is not--unfortunately quite often what we're talking about is actions that are taken without regard to cost to the public, and a lot of times people think that we can just do these things and we're going to improve things and there's going to be no cost at all because there's nothing in the federal budget but it ends up costing the American consumer enormous amounts of money. In this case, did you find that the Army Corps of Engineers and the State of Alaska were brought into the decision-making process here and the investigation as they should have been?    Hon. Cohen. Well, the answer to that is yes and no. The State of Alaska was brought into it unwillingly. If you look at the report, you'll find from day one, Alaska objected to this process being instituted under 404(c). So the Governor actually wrote to the EPA Administrator saying it's a case where I'm damned if I do and damned if I don't. If I refuse to participate in this, EPA will say you had your chance. If I don't participate--if I do participate in this, I'll be seen as complying with it and having my chance, but I, the State of Alaska, are fundamentally opposed to proceeding in this fashion. So the State of Alaska did in fact participate unwillingly and with great objection throughout from the day it all started.    With respect to the Corps itself, the Army Corps of Engineers was not brought in to the process. Initially when the Bristol Bay Watershed Assessment was done, they said they couldn't participate because they would be called upon to become active during the NEPA process and therefore wanted to avoid a conflict of interest, and then when the assessments were completed, the watershed assessment was completed, they were asked, do you want to comment, and they said we can't comment because we have no defined plan. So the Army Corps of Engineers never participated in this process, which raises the question that the Army Corps of Engineers is the action agent. They are the project manager for any type of mine or project that would be designed. They are not part of this particular process so they were excluded under it.</t>
   </si>
   <si>
@@ -100,6 +121,12 @@
     <t>412501</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman, and thank you to our witnesses.    I represent a district that includes part of the beautiful Oregon coast, and a lot of my constituents are extremely concerned about the profound environmental risks associated with the operation of an open-pit copper mine in Bristol Bay, and I know we'll hear from Mr. Halford on our second panel, the people of Alaska are already dealing with some of the environmental fallout from the exploratory operations conducted by the Pebble Partnership in the region. They're very concerned about that.    Secretary Cohen, you talked about an unprecedented process, but it's my understanding that the Mineral Exploration and Development Act of 1993 contained very similar provisions--you supported it--that would have given the Department of Interior the authority to do essentially what the EPA has done here.    And I wanted to mention how concerned I am that we're having this conversation without the EPA here. We are questioning--raising a lot of questions about their process or their procedure. We absolutely need to hear from them. They should be in the room answering questions----</t>
   </si>
   <si>
@@ -118,12 +145,21 @@
     <t>412395</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brooks. Secretary Cohen or Mr. Scheeler, whoever prefers to answer, in your investigation, have you discovered any other instance where EPA limited or stopped a project using Section 404(c) before any permit applications have been submitted?    Hon. Cohen. There was one incident that I'm aware of, and Mr. Scheeler can amplify it. Out of the 43-year period of time in which this Act has been in law, there've been 13 occasions when 404(c) has been called upon only after the filing of a permit. The one exception to that was a case in Florida in which there were three contiguous parcels, and in two of those three parcels there had been permits filed and giving the opportunity for EPA and the Army Corps of Engineers and others to participate. Based upon their examination of those three contiguous properties, they decided that there was no need to file a permit in that one exception in Florida based upon the same characteristics, same area, different ownership. They said no need there, we've looked at all of the information from the Army Corps of Engineers and all who had participated and were satisfied this is the right course of action. There was one minor exception, and that was only after two of the three participants in the mining proposals had filed permit applications.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Scheeler</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scheeler. And Congressman, EPA themselves have written on this. There was a discussion matrix presented to the Administrator in September of 2010, and they were discussing the potential use of 404(c) before any permit application had been filed, and the EPA written statement is that that had never been done before in the history of the Clean Water Act.</t>
   </si>
   <si>
@@ -139,12 +175,24 @@
     <t>412655</t>
   </si>
   <si>
+    <t>Babin</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Babin. [Presiding] Yes, sir. Thank you. And I now recognized the gentleman from Virginia, Mr. Beyer.</t>
   </si>
   <si>
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman.    Secretary Cohen, Mr. Scheeler, Pebble's been blasted by Members of Congress from both sides of the aisle for years because for over a decade they haven't filed the mine permit. Mr. Secretary, you talked about there's nothing that the state can do, the EPA can do to compel them to do it. At the same time, they went to the SEC and did detailed information for investors on this, and I understand that much of what the EPA based their 404(c) determination on was Pebble's information to the SEC.    How much of EPA's decision to move forward was based on frustration that emerged from the fishermen who depend on this, from the Native Americans, from the people of Alaska that this was just a sword of Damocles hanging over their head, that Pebble was not coming forward with a mine permit and there was a lot of pressure on the EPA to try to do something?    Hon. Cohen. Well, that's another policy issue, Congressman, that I think needs to be addressed. If the State of Alaska, which owns the property, and have given mining rights to Pebble is there a requirement that they file a defined plan, a specified defined plan, in a certain time frame. I mean, it would seem to me that for the government to say you must file something is really kind of preempting certainly the state's interest in this and certainly Pebble's interest but any time a landowner including the State of Alaska is forced to take action, which it says it's not ready to take or the individual involved who owns the property right or the mineral right, you must do this, it seems to me that this is a policy issue which I think Congress needs to look at closely.    If you think 404(c) should be applied and can be applied on multiple occasions, not just this one but multiple occasions without a permit having been filed, then that's a very big policy decision, and I think it's worth--I think you need to explore it. I think this is very important.    And I would tell the Committee and the people who are here, I've been a big supporter of EPA. Historically, I've supported much if not all of their work in the past certainly when I was a Member of Congress, but I also felt when I was in the Senate and the House that I wanted every agency to act as openly and fairly as possible and you come to the situation where you say I'm going to force you to file a plan before you're ready. I think that trespasses upon the state's right and also the individual's rights. That's a personal opinion. It's a policy decision which I think you need to raise and hopefully resolve.</t>
   </si>
   <si>
@@ -172,6 +220,12 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman, and thank you both for being here.    As a ten year resident of Alaska who did some recreational mining, this is--I can equate to what you're going through, but question for either one of you, Mr. Secretary or Mr. Scheeler. In the course of your investigation, did you determine whether EPA employees were using private email accounts to discuss official EPA business with outside groups opposed to your mine?    Hon. Cohen. The answer is yes. There were--and we documented that in the report. There were a number of occasions when private emails were set up to conduct business, which violates actually EPA's own rules, in the aspect that those private conversations or communications need to be filed with EPA. There----</t>
   </si>
   <si>
@@ -232,6 +286,12 @@
     <t>412520</t>
   </si>
   <si>
+    <t>Takano</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman. Thank you both for being here today.    Mr. Scheeler, the report stresses that you conducted an independent review although you were paid by the Pebble Partnership to write the report, but I've learned of a recent transaction that raises some questions about the association between your law firm, DLA Piper, and Northern Dynasty, the parent company of Pebble Limited Partnership. I'd like to put up a slide, if I may.    [Slide.]               This slide here, slide one, shows that on October 28th, nearly 9 million shares of Northern Dynasty stock worth more than $2.7 million were transferred to a British Columbia company listed by its business number 1047208 BC Limited. Slide two, please.    [Slide.]                    Actually, is it slide two or slide three? Well, this slide clearly identifies Stewart Morrow listed as the contact for the business 1047208 as a DLA Piper partner. Last slide, please.    [Slide.]               This slide shows that the address this numbered company provided on a British Columbia Securities Commission form is the same exact address and suite number as DLA Piper's Vancouver office.    Now, Mr. Scheeler, I don't know the background or specifics about this transaction but I do believe the mere fact that a DLA Piper partner was involved in a significant business transaction involving the parent company of the Pebble Partnership less than 6 weeks before you and Secretary Cohen released your independent review of the EPA's actions regarding Northern Dynasty's proposed Pebble Mine in Bristol Bay does raise serious conflicts of interest and questions about the independence of your report.    Were you aware of this transaction before the release of the Cohen Report?</t>
   </si>
   <si>
@@ -259,6 +319,12 @@
     <t>412608</t>
   </si>
   <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman, and thank you to the witnesses.    Secretary Cohen, in your investigation, did you determine that EPA employees had considered using 404(c) of the Clean Water Act long before EPA had obtained any science on the impacts of the mine?    Hon. Cohen. I indicated in the report that there were allegations to that effect and that there was some indication, some examples that were cited in the report of conversations had as early as 2005 on the part of Mr. North talking to others that this was something that would be ripe for a 404(c) application. In addition to that, there were a number of matrixes set out, a pro and con matrix, for the Administrator to look at to say well, if we go the NEPA way, here's what happens. If we use 404(c), we have these advantages. And so there were indications that long before they made a determination that this has been something that they were considering. Also, there's a budgetary issue involved. It appears--and again, this is something that we couldn't really confirm but it appears that money was being requested as early as 2009 in order to carry out the 404(c) investigation. There were--it's in the 2010 budget, it appears to be in the 2010 budget of EPA. To get it in the budget, you would have to have started talking about it as early as 2009. So there's--there are a lot of examples. I didn't come to any conclusion that there was--that they in fact had made that decision but there's enough there for you to want to follow up on to say how come these processes were used that early.</t>
   </si>
   <si>
@@ -280,6 +346,12 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair.    Mr. Cohen, I have a series of questions about your report, and please answer a simple yes or no. Did you make any public announcement of your intention to initiate a review of EPA's actions?    Hon. Cohen. I made a public announcement. I had a press conference.</t>
   </si>
   <si>
@@ -337,6 +409,12 @@
     <t>412610</t>
   </si>
   <si>
+    <t>Westerman</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman, and thank you, Secretary Cohen, for your testimony today and for your service to our country, and Mr. Scheeler, thank you for being here.    As we broach this subject of integrity and fair processes, the EPA claims that they took their action against the Pebble Mine because the agency received a petition letter asking them to stop the mine by using a preemptive 404(c) action. Mr. Cohen, can you explain what you found regarding this in the course of your investigation?    Hon. Cohen. Well, I think that Mr. Scheeler has already commented on this, that there is evidence that a decision--a recommendation for a decision to go to 404(c) preceded the action taken by EPA so that there is a fairly lengthy period of time in which it's clear that it was not the petition that activated this but rather that this was something that was thought about as long ago as 2005, long before the agency took action by instituting a so-called Bristol Bay Watershed Assessment in 2011.</t>
   </si>
   <si>
@@ -361,12 +439,18 @@
     <t xml:space="preserve">    Chairman Smith. The Science, Space, and Technology Committee will resume our hearing, and if Mr. Collier and Mr. Halford would come forward and be seated? And I'll introduce our two witnesses.    Our first witness on the second panel is Mr. Tom Collier, Chief Executive Officer for Pebble Limited Partnership. Prior to this position, Mr. Collier enjoyed a 40-year legal career with Steptoe and Johnson. There, he helped guide companies through the federal environmental permitting process. He has worked on several Alaskan resource projects. In addition to his legal career, Mr. Collier was the Chief of Staff for the U.S. Department of the Interior. Mr. Collier received his bachelor's degree in international relations from the University of Virginia and his law degree from the University of Mississippi.    Our other witness is Senator Rick Halford, former Alaska State Senator and Representative of Trout Unlimited. Senator Halford served for nearly 25 years in the Alaska State Senate with multiple terms as both Senate President and Senate Majority Leader. In addition, he served as an RNC Committeeman for Alaska and earned a Defender of Freedom Award from the NRA. Prior to joining the Alaska State Senate, Senator Halford was a float plane pilot, and he earned his bachelor's degree from Alaska Methodist University.    We welcome you both, and appreciate your being here and appreciate your patience as well since we're running a little bit late, and Mr. Collier, if you'll begin?</t>
   </si>
   <si>
+    <t>Collier</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collier. Thank you, Mr. Chairman and Members of the Committee, for the opportunity to testify today.    As you all know, there's a well-worn pathway to build a natural resources project in America. You file your permit application. You go to the Corps of Engineers. The Corps of Engineers selects an independent contractor to do an extensive environmental impact statement, and then makes a decision on your permit. In fact, the environmental organizations refer to the environmental impact statement as the Magna Carta of environmental protection, and in fact, I agree with them on that characterization.    In our situation, however, EPA decided to abandon this well-worn pathway, and for the first time ever in the history of the statute, it's issued an intent to veto our project before we've even filed a permit application.    The question is why have they done this, and a starting point in that analysis is recognizing that there's no environmental harm that will happen whatsoever if we're simply allowed to go through the permit process. We don't get to build a mine. We don't get to turn a shovel of dirt. In fact, we go through the permit process. But you don't need to speculate on why because we found documents, internal documents within EPA, that clearly explain what their motive is, what their intent in establishing this precedent is.    The first one is that they want the opportunity when there's a controversial project before them to take jurisdiction away from the Corps of Engineers, away from the state, and to leave it unilaterally with EPA. Second, and this is language straight from EPA documents, they want to establish a precedent for proactive watershed planning for sustainability. They want to be able to go out there and look at a watershed and decide whether or not it should be a park or it should be something subject to development. They want something akin to local zoning authority to reside with EPA. They want to be able to zone the watersheds of America. I don't think the Clean Water Act gives them that authority.    The problem is, when a federal agency wanders off the well-worn pathway, there's opportunity for mischief, and here that mischief has been extensive. As detailed more in my written statement, and as Secretary Cohen just eloquently testified to, EPA, in my view, predetermined the outcome with respect to Pebble. That's what the documents show. And they manipulated the process in order to get to that outcome.    Just a couple of examples, and the record is full of many of these examples. EPA says that they initiated this process because petitions were drafted by Native tribes and submitted to them. The documents show that as early as January, the year before these petitions were submitted in June, an EPA employee and an environmental activist colluded to draft those petitions and then circulated them to the tribes that signed them. In addition, they worked together, an EPA employee and an environmental activist, to draft the decision memo that would be used by the Regional Administrator. This was being done before the petitions had even been filed and the decision memo, the EPA decision memo, was being drafted not just in EPA but was being drafted with the participation of environmental activists. I worked in a federal agency that dealt with environmental issues, and if that had happened on my watch, that employee would have been fired that day. That's how egregious this conduct is.    The BBWA that resulted from this has been characterized by EPA as good science. It's not good science. How in the world do you take a scientific look at the environmental impacts of a project when you don't know what the project is? There's no project on the table.    Second, what they did to get around this is they assigned a biologist in Alaska to design the mine that they assumed Pebble would design, and that biologist designed the mine--Phil North--designed it so that it would have the most egregious environmental impacts so that they could use those impacts as their justification for deciding that the mine should be vetoed. Phil North, by the way, fled the country in order to avoid a subpoena from another committee of Congress.    Look, the impact of this preliminary veto, this preemptive veto on Pebble has been devastating but it's not just an impact on Pebble. This is going to have an impact across the country. We have invested $750 million to get ready to go into permitting, and EPA is trying to tell us unilaterally that we cannot even initiate the permitting process. If you send that message to people out there regarding natural resource projects across America, nobody's going to stand in line to file permits. Nobody's going to invest in the permitting process.    Thank you for your time today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Collier.    Senator Halford.</t>
   </si>
   <si>
+    <t>Halford</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Halford. Thank you, Mr. Chairman, and thank----</t>
   </si>
   <si>
@@ -479,6 +563,12 @@
   </si>
   <si>
     <t>412574</t>
+  </si>
+  <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Weber. Thank you, Mr. Chairman.    Mr. Collier, this question is for you. What is your understanding of the decision EPA undertook to initiate the Bristol Bay Watershed Assessment? Did the EPA initiate this study to gather more information, or would--did it seem more like a preemptive 404(c) action?</t>
@@ -1028,7 +1118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,7 +1126,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,4781 +1148,5665 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
       <c r="H25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
       <c r="H26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G28" t="s">
+        <v>57</v>
+      </c>
       <c r="H28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
       <c r="H29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
       <c r="H30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
       <c r="H31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
       <c r="H32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
       <c r="H33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>68</v>
+      </c>
       <c r="H34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
       <c r="H35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>68</v>
+      </c>
       <c r="H36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G37" t="s">
+        <v>68</v>
+      </c>
       <c r="H37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G38" t="s">
+        <v>68</v>
+      </c>
       <c r="H38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G40" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G42" t="s">
+        <v>68</v>
+      </c>
       <c r="H42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>68</v>
+      </c>
       <c r="H44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G45" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
       <c r="H46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
       <c r="H48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
       <c r="H49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
       <c r="H50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G51" t="s">
+        <v>68</v>
+      </c>
       <c r="H51" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
       <c r="H52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G53" t="s">
+        <v>90</v>
+      </c>
       <c r="H53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G54" t="s">
+        <v>47</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>71</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G55" t="s">
+        <v>90</v>
+      </c>
       <c r="H55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G57" t="s">
+        <v>90</v>
+      </c>
       <c r="H57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G59" t="s">
+        <v>90</v>
+      </c>
       <c r="H59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G60" t="s">
+        <v>53</v>
+      </c>
       <c r="H60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G61" t="s">
+        <v>101</v>
+      </c>
       <c r="H61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G62" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G63" t="s">
+        <v>101</v>
+      </c>
       <c r="H63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G64" t="s">
+        <v>101</v>
+      </c>
       <c r="H64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G65" t="s">
+        <v>101</v>
+      </c>
       <c r="H65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G66" t="s">
+        <v>53</v>
+      </c>
       <c r="H66" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G67" t="s">
+        <v>110</v>
+      </c>
       <c r="H67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G68" t="s">
+        <v>110</v>
+      </c>
       <c r="H68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G69" t="s">
+        <v>110</v>
+      </c>
       <c r="H69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G70" t="s">
+        <v>110</v>
+      </c>
       <c r="H70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G71" t="s">
+        <v>110</v>
+      </c>
       <c r="H71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G72" t="s">
+        <v>110</v>
+      </c>
       <c r="H72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G73" t="s">
+        <v>110</v>
+      </c>
       <c r="H73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G74" t="s">
+        <v>110</v>
+      </c>
       <c r="H74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G75" t="s">
+        <v>110</v>
+      </c>
       <c r="H75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G76" t="s">
+        <v>110</v>
+      </c>
       <c r="H76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G77" t="s">
+        <v>110</v>
+      </c>
       <c r="H77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>87</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G78" t="s">
+        <v>110</v>
+      </c>
       <c r="H78" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I78" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>87</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G79" t="s">
+        <v>110</v>
+      </c>
       <c r="H79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I79" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G80" t="s">
+        <v>110</v>
+      </c>
       <c r="H80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G83" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>106</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G85" t="s">
+        <v>131</v>
+      </c>
       <c r="H85" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>106</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G86" t="s">
+        <v>131</v>
+      </c>
       <c r="H86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>106</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G87" t="s">
+        <v>131</v>
+      </c>
       <c r="H87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G88" t="s">
+        <v>47</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>106</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G89" t="s">
+        <v>131</v>
+      </c>
       <c r="H89" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I89" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>106</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G90" t="s">
+        <v>131</v>
+      </c>
       <c r="H90" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G93" t="s">
+        <v>141</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G95" t="s">
+        <v>144</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G97" t="s">
+        <v>144</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G99" t="s">
+        <v>53</v>
+      </c>
       <c r="H99" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I99" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G100" t="s">
+        <v>144</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G101" t="s">
+        <v>53</v>
+      </c>
       <c r="H101" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G102" t="s">
+        <v>144</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G103" t="s">
+        <v>53</v>
+      </c>
       <c r="H103" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I103" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G104" t="s">
+        <v>144</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G105" t="s">
+        <v>53</v>
+      </c>
       <c r="H105" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G106" t="s">
+        <v>144</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G107" t="s">
+        <v>53</v>
+      </c>
       <c r="H107" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I107" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G108" t="s">
+        <v>141</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G109" t="s">
+        <v>53</v>
+      </c>
       <c r="H109" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I109" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G111" t="s">
+        <v>57</v>
+      </c>
       <c r="H111" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G112" t="s">
+        <v>144</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G114" t="s">
+        <v>141</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G116" t="s">
+        <v>141</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G118" t="s">
+        <v>141</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>27</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G120" t="s">
+        <v>35</v>
+      </c>
       <c r="H120" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I120" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>27</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G122" t="s">
+        <v>35</v>
+      </c>
       <c r="H122" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I122" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
       <c r="H123" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>27</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G124" t="s">
+        <v>35</v>
+      </c>
       <c r="H124" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I124" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G125" t="s">
+        <v>144</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>27</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G126" t="s">
+        <v>35</v>
+      </c>
       <c r="H126" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I126" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G127" t="s">
+        <v>144</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>27</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G128" t="s">
+        <v>35</v>
+      </c>
       <c r="H128" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I128" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G129" t="s">
+        <v>144</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>27</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G130" t="s">
+        <v>35</v>
+      </c>
       <c r="H130" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I130" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
       <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G132" t="s">
+        <v>35</v>
+      </c>
       <c r="H132" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
       <c r="H133" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>154</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G134" t="s">
+        <v>183</v>
+      </c>
       <c r="H134" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I134" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G135" t="s">
+        <v>141</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>154</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G136" t="s">
+        <v>183</v>
+      </c>
       <c r="H136" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G137" t="s">
+        <v>141</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>154</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G138" t="s">
+        <v>183</v>
+      </c>
       <c r="H138" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G139" t="s">
+        <v>141</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>154</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G140" t="s">
+        <v>183</v>
+      </c>
       <c r="H140" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I140" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>154</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G141" t="s">
+        <v>183</v>
+      </c>
       <c r="H141" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I141" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G142" t="s">
+        <v>141</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>154</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G143" t="s">
+        <v>183</v>
+      </c>
       <c r="H143" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I143" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G144" t="s">
+        <v>141</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>154</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G145" t="s">
+        <v>183</v>
+      </c>
       <c r="H145" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I145" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G146" t="s">
+        <v>141</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>154</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G147" t="s">
+        <v>183</v>
+      </c>
       <c r="H147" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I147" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G148" t="s">
+        <v>141</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>154</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G149" t="s">
+        <v>183</v>
+      </c>
       <c r="H149" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I149" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G150" t="s">
+        <v>141</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>154</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G151" t="s">
+        <v>183</v>
+      </c>
       <c r="H151" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I151" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G152" t="s">
+        <v>141</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>154</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G153" t="s">
+        <v>183</v>
+      </c>
       <c r="H153" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I153" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
       <c r="H154" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>106</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G155" t="s">
+        <v>131</v>
+      </c>
       <c r="H155" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I155" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G156" t="s">
+        <v>141</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>106</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G157" t="s">
+        <v>131</v>
+      </c>
       <c r="H157" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I157" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G158" t="s">
+        <v>141</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>106</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G159" t="s">
+        <v>131</v>
+      </c>
       <c r="H159" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I159" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G160" t="s">
+        <v>141</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>106</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G161" t="s">
+        <v>131</v>
+      </c>
       <c r="H161" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I161" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G162" t="s">
+        <v>141</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>106</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G163" t="s">
+        <v>131</v>
+      </c>
       <c r="H163" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I163" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G164" t="s">
+        <v>141</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>106</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G165" t="s">
+        <v>131</v>
+      </c>
       <c r="H165" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I165" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
       <c r="H166" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>80</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G167" t="s">
+        <v>101</v>
+      </c>
       <c r="H167" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I167" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G168" t="s">
+        <v>141</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>80</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G169" t="s">
+        <v>101</v>
+      </c>
       <c r="H169" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I169" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>35</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G170" t="s">
+        <v>141</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>80</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G171" t="s">
+        <v>101</v>
+      </c>
       <c r="H171" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I171" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G172" t="s">
+        <v>141</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>80</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G173" t="s">
+        <v>101</v>
+      </c>
       <c r="H173" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I173" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G174" t="s">
+        <v>141</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>80</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G175" t="s">
+        <v>101</v>
+      </c>
       <c r="H175" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I175" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G176" t="s">
+        <v>141</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>80</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G177" t="s">
+        <v>101</v>
+      </c>
       <c r="H177" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I177" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
       <c r="H178" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>51</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G179" t="s">
+        <v>68</v>
+      </c>
       <c r="H179" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I179" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
       <c r="H180" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>51</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G181" t="s">
+        <v>68</v>
+      </c>
       <c r="H181" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I181" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G182" t="s">
+        <v>141</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>51</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G183" t="s">
+        <v>68</v>
+      </c>
       <c r="H183" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I183" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G184" t="s">
+        <v>141</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>51</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G185" t="s">
+        <v>68</v>
+      </c>
       <c r="H185" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G186" t="s">
+        <v>141</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>51</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G187" t="s">
+        <v>68</v>
+      </c>
       <c r="H187" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I187" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G188" t="s">
+        <v>141</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>51</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G189" t="s">
+        <v>68</v>
+      </c>
       <c r="H189" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I189" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
       <c r="H190" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G191" t="s">
+        <v>144</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
       <c r="H192" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G193" t="s">
+        <v>144</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
       <c r="H194" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I194" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G195" t="s">
+        <v>144</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G196" t="s">
+        <v>13</v>
+      </c>
       <c r="H196" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I196" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G197" t="s">
+        <v>144</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
       <c r="H198" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="G199" t="s">
+        <v>141</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G200" t="s">
+        <v>13</v>
+      </c>
       <c r="H200" t="s">
-        <v>221</v>
+        <v>14</v>
+      </c>
+      <c r="I200" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97767.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97767.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>400204</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -95,6 +104,9 @@
   </si>
   <si>
     <t>400343</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Rohrabacher</t>
@@ -1118,7 +1130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,7 +1138,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,5662 +1163,6148 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
       </c>
       <c r="I13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G35" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G36" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" t="s">
-        <v>47</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G44" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
-      </c>
-      <c r="G47" t="s">
-        <v>47</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G49" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G51" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G52" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H53" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G54" t="s">
-        <v>47</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G55" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H55" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
-      </c>
-      <c r="G56" t="s">
-        <v>47</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G57" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
-      </c>
-      <c r="G58" t="s">
-        <v>47</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>51</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G59" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H59" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I59" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G60" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H60" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G61" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="H61" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>46</v>
-      </c>
-      <c r="G62" t="s">
-        <v>47</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>51</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G63" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="H63" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G64" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="H64" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I64" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G65" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="H65" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I65" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G66" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H66" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G67" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H67" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I67" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G68" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H68" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I68" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G69" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H69" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G70" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H70" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I70" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G71" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H71" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I71" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G72" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H72" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G73" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H73" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I73" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J73" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G74" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H74" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I74" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G75" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H75" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I75" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G76" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I76" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G77" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I77" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G78" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H78" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I78" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G79" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H79" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I79" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G80" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I80" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
-      </c>
-      <c r="G83" t="s">
-        <v>47</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>51</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G85" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="H85" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I85" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G86" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="H86" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I86" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G87" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="H87" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I87" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>46</v>
-      </c>
-      <c r="G88" t="s">
-        <v>47</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>51</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G89" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="H89" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I89" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J89" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G90" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="H90" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I90" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J90" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
-      </c>
-      <c r="G93" t="s">
-        <v>141</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>145</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>46</v>
-      </c>
-      <c r="G95" t="s">
-        <v>144</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>148</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>46</v>
-      </c>
-      <c r="G97" t="s">
-        <v>144</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>148</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G99" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H99" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I99" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J99" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
-      </c>
-      <c r="G100" t="s">
-        <v>144</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>148</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G101" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H101" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I101" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J101" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
-      </c>
-      <c r="G102" t="s">
-        <v>144</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>148</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G103" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H103" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I103" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J103" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>46</v>
-      </c>
-      <c r="G104" t="s">
-        <v>144</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>148</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G105" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H105" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I105" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J105" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
-      </c>
-      <c r="G106" t="s">
-        <v>144</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>148</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G107" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H107" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I107" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>46</v>
-      </c>
-      <c r="G108" t="s">
-        <v>141</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>145</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G109" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H109" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I109" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J109" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G111" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H111" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I111" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J111" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
-      </c>
-      <c r="G112" t="s">
-        <v>144</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>148</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>46</v>
-      </c>
-      <c r="G114" t="s">
-        <v>141</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>145</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>46</v>
-      </c>
-      <c r="G116" t="s">
-        <v>141</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>145</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>46</v>
-      </c>
-      <c r="G118" t="s">
-        <v>141</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>145</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H120" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I120" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J120" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H122" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I122" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J122" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H124" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I124" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J124" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
-      </c>
-      <c r="G125" t="s">
-        <v>144</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>148</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H126" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I126" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J126" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
-      </c>
-      <c r="G127" t="s">
-        <v>144</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>148</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H128" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I128" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J128" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
-      </c>
-      <c r="G129" t="s">
-        <v>144</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>148</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H130" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I130" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J130" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I131" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H132" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I132" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J132" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I133" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J133" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G134" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="H134" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I134" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J134" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
-      </c>
-      <c r="G135" t="s">
-        <v>141</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>145</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G136" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="H136" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I136" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J136" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
-      </c>
-      <c r="G137" t="s">
-        <v>141</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>145</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G138" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="H138" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J138" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>46</v>
-      </c>
-      <c r="G139" t="s">
-        <v>141</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>145</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G140" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="H140" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I140" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J140" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G141" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="H141" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I141" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J141" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
-      </c>
-      <c r="G142" t="s">
-        <v>141</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>145</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G143" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="H143" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I143" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J143" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>46</v>
-      </c>
-      <c r="G144" t="s">
-        <v>141</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>145</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G145" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="H145" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I145" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J145" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>46</v>
-      </c>
-      <c r="G146" t="s">
-        <v>141</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>145</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G147" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="H147" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I147" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J147" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
-      </c>
-      <c r="G148" t="s">
-        <v>141</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>145</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G149" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="H149" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I149" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J149" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
-      </c>
-      <c r="G150" t="s">
-        <v>141</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>145</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G151" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="H151" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I151" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J151" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
-      </c>
-      <c r="G152" t="s">
-        <v>141</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>145</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G153" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="H153" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I153" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="J153" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I154" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G155" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="H155" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I155" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J155" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
-      </c>
-      <c r="G156" t="s">
-        <v>141</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>145</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G157" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="H157" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I157" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J157" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
-      </c>
-      <c r="G158" t="s">
-        <v>141</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>145</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G159" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="H159" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I159" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J159" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>46</v>
-      </c>
-      <c r="G160" t="s">
-        <v>141</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>145</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G161" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="H161" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I161" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J161" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>46</v>
-      </c>
-      <c r="G162" t="s">
-        <v>141</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>145</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G163" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="H163" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I163" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J163" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>46</v>
-      </c>
-      <c r="G164" t="s">
-        <v>141</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>145</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G165" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="H165" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I165" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J165" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I166" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J166" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G167" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="H167" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I167" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J167" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
-      </c>
-      <c r="G168" t="s">
-        <v>141</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>145</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G169" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="H169" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I169" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J169" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>46</v>
-      </c>
-      <c r="G170" t="s">
-        <v>141</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>145</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G171" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="H171" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I171" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J171" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
-      </c>
-      <c r="G172" t="s">
-        <v>141</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>145</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G173" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="H173" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I173" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J173" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>46</v>
-      </c>
-      <c r="G174" t="s">
-        <v>141</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>145</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G175" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="H175" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I175" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J175" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
-      </c>
-      <c r="G176" t="s">
-        <v>141</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>145</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G177" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="H177" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I177" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J177" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I178" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G179" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H179" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I179" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J179" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I180" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J180" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G181" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H181" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I181" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J181" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>46</v>
-      </c>
-      <c r="G182" t="s">
-        <v>141</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>145</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G183" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H183" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I183" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J183" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>46</v>
-      </c>
-      <c r="G184" t="s">
-        <v>141</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>145</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G185" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H185" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I185" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J185" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>46</v>
-      </c>
-      <c r="G186" t="s">
-        <v>141</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>145</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G187" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H187" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I187" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J187" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>46</v>
-      </c>
-      <c r="G188" t="s">
-        <v>141</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>145</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G189" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H189" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I189" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J189" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I190" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J190" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
-      </c>
-      <c r="G191" t="s">
-        <v>144</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>148</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I192" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J192" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>46</v>
-      </c>
-      <c r="G193" t="s">
-        <v>144</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>148</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I194" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J194" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>46</v>
-      </c>
-      <c r="G195" t="s">
-        <v>144</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>148</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I196" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J196" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>46</v>
-      </c>
-      <c r="G197" t="s">
-        <v>144</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>148</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I198" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J198" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>46</v>
-      </c>
-      <c r="G199" t="s">
-        <v>141</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>145</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I200" t="s">
-        <v>251</v>
+        <v>16</v>
+      </c>
+      <c r="J200" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
